--- a/bh3/547556103445911130_2021-07-15_13-17-20.xlsx
+++ b/bh3/547556103445911130_2021-07-15_13-17-20.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4933595137</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:46:25</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44395.07390046296</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>4930004567</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:21:00</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44394.72291666667</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -673,10 +685,8 @@
           <t>4927114692</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:45:39</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44394.40670138889</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -740,10 +750,8 @@
           <t>4926760340</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:27:52</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44394.35268518519</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -803,10 +811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-16 09:14:41</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44393.38519675926</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -884,10 +890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-16 08:03:00</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44393.33541666667</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -960,10 +964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-16 06:25:49</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44393.26792824074</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -1031,10 +1033,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:14:13</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44393.05153935185</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1110,10 +1110,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:14:10</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44393.00983796296</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1181,10 +1179,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:57:00</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44392.99791666667</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1256,10 +1252,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:15:43</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44392.96924768519</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1335,10 +1329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:29:21</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44392.93704861111</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1407,10 +1399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:08:06</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44392.92229166667</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1474,10 +1464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:59:57</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44392.91663194444</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1545,10 +1533,8 @@
           <t>4917025850</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:55:31</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44392.91355324074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1616,10 +1602,8 @@
           <t>4916624097</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:03:51</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44392.87767361111</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1695,10 +1679,8 @@
           <t>4916550665</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:53:18</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44392.87034722222</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1774,10 +1756,8 @@
           <t>4916538020</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:52:15</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44392.86961805556</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1853,10 +1833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:51:13</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44392.86890046296</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1932,10 +1910,8 @@
           <t>4916530935</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:49:54</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44392.86798611111</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2011,10 +1987,8 @@
           <t>4916516785</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:48:14</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44392.86682870371</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2090,10 +2064,8 @@
           <t>4916493592</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:46:29</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44392.86561342593</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2169,10 +2141,8 @@
           <t>4916490530</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:45:13</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44392.8647337963</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2248,10 +2218,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:27:54</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44392.85270833333</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2323,10 +2291,8 @@
           <t>4916346169</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:25:00</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44392.85069444445</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2402,10 +2368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:21:02</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44392.84793981481</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2477,10 +2441,8 @@
           <t>4916310722</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:19:27</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44392.84684027778</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2552,10 +2514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:08:45</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44392.83940972222</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2623,10 +2583,8 @@
           <t>4915459748</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:59:24</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44392.83291666667</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2690,10 +2648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:32:16</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44392.81407407407</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2765,10 +2721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:13:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44392.8007175926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2836,10 +2790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:58:39</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44392.79072916666</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2921,10 +2873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:32:28</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44392.7725462963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2988,10 +2938,8 @@
           <t>4915459748</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:24:07</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44392.76674768519</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3055,10 +3003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:50:57</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44392.74371527778</v>
       </c>
       <c r="I36" t="n">
         <v>25</v>
@@ -3130,10 +3076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:46:58</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44392.74094907408</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3209,10 +3153,8 @@
           <t>4915116526</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:34:39</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44392.73239583334</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3280,10 +3222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:34:12</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44392.73208333334</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3351,10 +3291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:34:05</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44392.73200231481</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3426,10 +3364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:28:42</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44392.72826388889</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3493,10 +3429,8 @@
           <t>4915071686</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:28:02</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44392.72780092592</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -3564,10 +3498,8 @@
           <t>4915022276</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:21:24</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44392.72319444444</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3637,10 +3569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:00:26</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44392.70863425926</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3704,10 +3634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:41:57</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44392.69579861111</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3775,10 +3703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:37:07</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44392.69244212963</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3855,10 +3781,8 @@
           <t>4914664259</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:25:34</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44392.6844212963</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3930,10 +3854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:18:34</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44392.67956018518</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3997,10 +3919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:17:42</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44392.67895833333</v>
       </c>
       <c r="I49" t="n">
         <v>6</v>
@@ -4076,10 +3996,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:14:10</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44392.67650462963</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4147,10 +4065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:05:05</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44392.67019675926</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4214,10 +4130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:58:23</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44392.66554398148</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4289,10 +4203,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:43:38</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44392.65530092592</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4368,10 +4280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:43:00</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44392.65486111111</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4435,10 +4345,8 @@
           <t>4914402271</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:40:21</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44392.65302083334</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4510,10 +4418,8 @@
           <t>4914390000</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:39:06</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44392.65215277778</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4585,10 +4491,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:38:56</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44392.65203703703</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4664,10 +4568,8 @@
           <t>4914397741</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:38:45</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44392.65190972222</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4739,10 +4641,8 @@
           <t>4914395423</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:37:32</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44392.65106481482</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4814,10 +4714,8 @@
           <t>4914332733</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:27:39</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44392.64420138889</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4894,10 +4792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:25:39</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44392.6428125</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4959,10 +4855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:25:30</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44392.64270833333</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -5022,10 +4916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:25:21</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44392.64260416666</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5085,10 +4977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:25:15</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44392.64253472222</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5148,10 +5038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:25:11</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44392.64248842592</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5211,10 +5099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:15:39</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44392.63586805556</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5290,10 +5176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:13:43</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44392.63452546296</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5361,10 +5245,8 @@
           <t>4913634353</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:54:12</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44392.62097222222</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5432,10 +5314,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:53:53</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44392.62075231481</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5499,10 +5379,8 @@
           <t>4914097703</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:46:33</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44392.61565972222</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5578,10 +5456,8 @@
           <t>4914080212</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:42:35</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44392.6129050926</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5645,10 +5521,8 @@
           <t>4914063033</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:40:11</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44392.61123842592</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5712,10 +5586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:38:26</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44392.61002314815</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5783,10 +5655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:38:08</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44392.60981481482</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5862,10 +5732,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:36:44</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44392.60884259259</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -5933,10 +5801,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:35:24</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44392.60791666667</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6008,10 +5874,8 @@
           <t>4914028891</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:34:06</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44392.60701388889</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6083,10 +5947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:33:37</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44392.60667824074</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6158,10 +6020,8 @@
           <t>4914025871</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:32:24</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44392.60583333333</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6229,10 +6089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:32:12</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44392.60569444444</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6300,10 +6158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:30:50</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44392.60474537037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6371,10 +6227,8 @@
           <t>4914003471</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:29:30</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44392.60381944444</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6444,10 +6298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:28:12</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44392.60291666666</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6511,10 +6363,8 @@
           <t>4913970261</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:26:54</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44392.60201388889</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6590,10 +6440,8 @@
           <t>4913970261</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:22:19</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44392.59883101852</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6677,10 +6525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:19:05</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44392.59658564815</v>
       </c>
       <c r="I86" t="n">
         <v>6</v>
@@ -6744,10 +6590,8 @@
           <t>4913663156</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:17:11</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44392.5952662037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6819,10 +6663,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:13:48</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44392.59291666667</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6896,10 +6738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:11:52</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44392.59157407407</v>
       </c>
       <c r="I89" t="n">
         <v>9</v>
@@ -6963,10 +6803,8 @@
           <t>4913901001</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:10:31</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44392.59063657407</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7034,10 +6872,8 @@
           <t>4913853963</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:18</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44392.585625</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -7113,10 +6949,8 @@
           <t>4913856131</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:37</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44392.58515046296</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7192,10 +7026,8 @@
           <t>4913837745</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:10</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44392.58344907407</v>
       </c>
       <c r="I93" t="n">
         <v>5</v>
@@ -7267,10 +7099,8 @@
           <t>4913835093</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:51</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44392.58253472222</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7338,10 +7168,8 @@
           <t>4913822792</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:42</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44392.58173611111</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7409,10 +7237,8 @@
           <t>4913826261</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:28</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44392.58157407407</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7488,10 +7314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:10</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44392.58067129629</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7559,10 +7383,8 @@
           <t>4913815796</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:43</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44392.58035879629</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7638,10 +7460,8 @@
           <t>4913790268</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:23</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44392.57873842592</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7709,10 +7529,8 @@
           <t>4913749377</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:07</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44392.57855324074</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7780,10 +7598,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:28</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44392.57810185185</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7855,10 +7671,8 @@
           <t>4913749377</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:51:42</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44392.57756944445</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7934,10 +7748,8 @@
           <t>4913790268</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:51:33</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44392.57746527778</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8014,10 +7826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:14</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44392.57655092593</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8085,10 +7895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:49:10</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44392.57581018518</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8156,10 +7964,8 @@
           <t>4913749377</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:42</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44392.57479166667</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8227,10 +8033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:33</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44392.5746875</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8298,10 +8102,8 @@
           <t>4913749377</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:46:14</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44392.57377314815</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8369,10 +8171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:53</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44392.5735300926</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8442,10 +8242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:42</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44392.57340277778</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8521,10 +8319,8 @@
           <t>4913747510</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:19</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44392.57313657407</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8600,10 +8396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:55</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44392.57285879629</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8675,10 +8469,8 @@
           <t>4913741392</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:51</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44392.57211805556</v>
       </c>
       <c r="I113" t="n">
         <v>4</v>
@@ -8750,10 +8542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:44</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44392.57203703704</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8829,10 +8619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:33</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44392.57190972222</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8896,10 +8684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:55</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44392.57146990741</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8975,10 +8761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:46</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44392.57067129629</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9046,10 +8830,8 @@
           <t>4913724807</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:41</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44392.57061342592</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9125,10 +8907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:09</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44392.57024305555</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9204,10 +8984,8 @@
           <t>4913704902</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:21</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44392.56899305555</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9267,10 +9045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:38:57</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44392.56871527778</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9330,10 +9106,8 @@
           <t>4913700635</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:17</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44392.56755787037</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9410,10 +9184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:36:46</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44392.56719907407</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9485,10 +9257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:45</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44392.56649305556</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9560,10 +9330,8 @@
           <t>4913630498</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:15</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44392.56545138889</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9640,10 +9408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:07</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44392.5653587963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9711,10 +9477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:33:46</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44392.56511574074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9782,10 +9546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:33:11</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44392.56471064815</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9861,10 +9623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:33:01</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44392.56459490741</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9932,10 +9692,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:55</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44392.56452546296</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10007,10 +9765,8 @@
           <t>4913663156</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:31:45</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44392.56371527778</v>
       </c>
       <c r="I131" t="n">
         <v>4</v>
@@ -10078,10 +9834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:30:43</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44392.56299768519</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10145,10 +9899,8 @@
           <t>4913611177</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:30:19</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44392.56271990741</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10213,10 +9965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:28:32</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44392.56148148148</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10284,10 +10034,8 @@
           <t>4913634353</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:27:46</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44392.56094907408</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10363,10 +10111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:27:23</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44392.56068287037</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10434,10 +10180,8 @@
           <t>4913611177</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:27:22</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44392.5606712963</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10513,10 +10257,8 @@
           <t>4913629057</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:27:05</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44392.56047453704</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10592,10 +10334,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:27:03</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44392.56045138889</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10663,10 +10403,8 @@
           <t>4913630498</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:05</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44392.55978009259</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10734,10 +10472,8 @@
           <t>4913619609</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:42</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44392.55951388889</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10805,10 +10541,8 @@
           <t>4913621215</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:37</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44392.55945601852</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10884,10 +10618,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:29</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44392.55936342593</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10959,10 +10691,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:50</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44392.55891203704</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -11038,10 +10768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:46</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44392.55886574074</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11120,10 +10848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:08</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44392.55842592593</v>
       </c>
       <c r="I146" t="n">
         <v>4</v>
@@ -11190,10 +10916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:01</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44392.5583449074</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -11253,10 +10977,8 @@
           <t>4913615563</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:58</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44392.55831018519</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11324,10 +11046,8 @@
           <t>4913611177</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:31</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44392.55799768519</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11387,10 +11107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:29</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44392.55797453703</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11458,10 +11176,8 @@
           <t>4913595282</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:27</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44392.55795138889</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -11529,10 +11245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:57</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44392.55760416666</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11608,10 +11322,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:37</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44392.55737268519</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11689,10 +11401,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:32</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44392.55731481482</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -11764,10 +11474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:29</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44392.55728009259</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11831,10 +11539,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:18</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44392.55715277778</v>
       </c>
       <c r="I156" t="n">
         <v>16</v>
@@ -11910,10 +11616,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:18</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44392.55715277778</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -11989,10 +11693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:51</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44392.55684027778</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12064,10 +11766,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:42</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44392.55673611111</v>
       </c>
       <c r="I159" t="n">
         <v>49</v>
@@ -12143,10 +11843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:39</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44392.55670138889</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12218,10 +11916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:36</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44392.55666666666</v>
       </c>
       <c r="I161" t="n">
         <v>82</v>
@@ -12285,10 +11981,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:36</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44392.55666666666</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12356,10 +12050,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:27</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44392.5565625</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12431,10 +12123,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:10</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44392.55636574074</v>
       </c>
       <c r="I164" t="n">
         <v>25</v>
@@ -12502,10 +12192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:54</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44392.55618055556</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12569,10 +12257,8 @@
           <t>4913595282</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:53</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44392.55616898148</v>
       </c>
       <c r="I166" t="n">
         <v>11</v>
@@ -12648,10 +12334,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:52</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44392.55615740741</v>
       </c>
       <c r="I167" t="n">
         <v>3</v>
@@ -12727,10 +12411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:08</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44392.55564814815</v>
       </c>
       <c r="I168" t="n">
         <v>38</v>
@@ -12802,10 +12484,8 @@
           <t>4913583263</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:00</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44392.55555555555</v>
       </c>
       <c r="I169" t="n">
         <v>122</v>
@@ -12881,10 +12561,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:57</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44392.55552083333</v>
       </c>
       <c r="I170" t="n">
         <v>8</v>
@@ -12952,10 +12630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:47</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44392.55540509259</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13032,10 +12708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:40</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44392.55532407408</v>
       </c>
       <c r="I172" t="n">
         <v>204</v>
@@ -13111,10 +12785,8 @@
           <t>4913585206</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:31</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44392.55521990741</v>
       </c>
       <c r="I173" t="n">
         <v>65</v>
@@ -13190,10 +12862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:19</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44392.55508101852</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13261,10 +12931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:12</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44392.555</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13350,10 +13018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:09</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44392.55496527778</v>
       </c>
       <c r="I176" t="n">
         <v>11</v>
@@ -13421,10 +13087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:59</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44392.55484953704</v>
       </c>
       <c r="I177" t="n">
         <v>7</v>
@@ -13493,10 +13157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:49</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44392.5547337963</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13572,10 +13234,8 @@
           <t>4913575181</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:35</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44392.55457175926</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13635,10 +13295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:30</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44392.55451388889</v>
       </c>
       <c r="I180" t="n">
         <v>629</v>
@@ -13710,10 +13368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:20</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44392.55439814815</v>
       </c>
       <c r="I181" t="n">
         <v>13</v>
@@ -13777,10 +13433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:15</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44392.55434027778</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13852,10 +13506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:09</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44392.55427083333</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13923,10 +13575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:04</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44392.55421296296</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -13994,10 +13644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:00</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44392.55416666667</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14061,10 +13709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:58</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44392.55414351852</v>
       </c>
       <c r="I186" t="n">
         <v>3</v>
@@ -14140,10 +13786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:57</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44392.55413194445</v>
       </c>
       <c r="I187" t="n">
         <v>391</v>
@@ -14219,10 +13863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:54</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44392.55409722222</v>
       </c>
       <c r="I188" t="n">
         <v>176</v>
@@ -14294,10 +13936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:54</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44392.55409722222</v>
       </c>
       <c r="I189" t="n">
         <v>2</v>
@@ -14361,10 +14001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:41</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44392.55394675926</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
